--- a/ficheros/libros.xlsx
+++ b/ficheros/libros.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Nombre</t>
   </si>
@@ -47,7 +47,10 @@
     <t>A</t>
   </si>
   <si>
-    <t/>
+    <t>sf</t>
+  </si>
+  <si>
+    <t>sdf</t>
   </si>
   <si>
     <t>a</t>
@@ -156,18 +159,18 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
